--- a/Crawler/GdAPI/xzqh.xlsx
+++ b/Crawler/GdAPI/xzqh.xlsx
@@ -5,11 +5,14 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13180"/>
+    <workbookView windowWidth="30240" windowHeight="13280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$D$3713</definedName>
+  </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
@@ -14918,6 +14921,78 @@
     <t>30.246026</t>
   </si>
   <si>
+    <t>330102</t>
+  </si>
+  <si>
+    <t>浙江省杭州市上城区</t>
+  </si>
+  <si>
+    <t>120.19732</t>
+  </si>
+  <si>
+    <t>30.226543</t>
+  </si>
+  <si>
+    <t>330105</t>
+  </si>
+  <si>
+    <t>浙江省杭州市拱墅区</t>
+  </si>
+  <si>
+    <t>120.141503</t>
+  </si>
+  <si>
+    <t>30.319126</t>
+  </si>
+  <si>
+    <t>330106</t>
+  </si>
+  <si>
+    <t>浙江省杭州市西湖区</t>
+  </si>
+  <si>
+    <t>120.130396</t>
+  </si>
+  <si>
+    <t>30.259242</t>
+  </si>
+  <si>
+    <t>330108</t>
+  </si>
+  <si>
+    <t>浙江省杭州市滨江区</t>
+  </si>
+  <si>
+    <t>120.211981</t>
+  </si>
+  <si>
+    <t>30.208332</t>
+  </si>
+  <si>
+    <t>330109</t>
+  </si>
+  <si>
+    <t>浙江省杭州市萧山区</t>
+  </si>
+  <si>
+    <t>120.264263</t>
+  </si>
+  <si>
+    <t>30.184119</t>
+  </si>
+  <si>
+    <t>330110</t>
+  </si>
+  <si>
+    <t>浙江省杭州市余杭区</t>
+  </si>
+  <si>
+    <t>119.978742</t>
+  </si>
+  <si>
+    <t>30.273705</t>
+  </si>
+  <si>
     <t>330111</t>
   </si>
   <si>
@@ -14930,6 +15005,54 @@
     <t>30.048803</t>
   </si>
   <si>
+    <t>330112</t>
+  </si>
+  <si>
+    <t>浙江省杭州市临安区</t>
+  </si>
+  <si>
+    <t>119.724457</t>
+  </si>
+  <si>
+    <t>30.234375</t>
+  </si>
+  <si>
+    <t>330113</t>
+  </si>
+  <si>
+    <t>浙江省杭州市临平区</t>
+  </si>
+  <si>
+    <t>120.299222</t>
+  </si>
+  <si>
+    <t>30.419154</t>
+  </si>
+  <si>
+    <t>330114</t>
+  </si>
+  <si>
+    <t>浙江省杭州市钱塘区</t>
+  </si>
+  <si>
+    <t>120.493941</t>
+  </si>
+  <si>
+    <t>30.32304</t>
+  </si>
+  <si>
+    <t>330122</t>
+  </si>
+  <si>
+    <t>浙江省杭州市桐庐县</t>
+  </si>
+  <si>
+    <t>119.691755</t>
+  </si>
+  <si>
+    <t>29.79418</t>
+  </si>
+  <si>
     <t>330127</t>
   </si>
   <si>
@@ -14942,30 +15065,6 @@
     <t>29.609678</t>
   </si>
   <si>
-    <t>330102</t>
-  </si>
-  <si>
-    <t>浙江省杭州市上城区</t>
-  </si>
-  <si>
-    <t>120.19732</t>
-  </si>
-  <si>
-    <t>30.226543</t>
-  </si>
-  <si>
-    <t>330122</t>
-  </si>
-  <si>
-    <t>浙江省杭州市桐庐县</t>
-  </si>
-  <si>
-    <t>119.691755</t>
-  </si>
-  <si>
-    <t>29.79418</t>
-  </si>
-  <si>
     <t>330182</t>
   </si>
   <si>
@@ -14976,102 +15075,6 @@
   </si>
   <si>
     <t>29.474964</t>
-  </si>
-  <si>
-    <t>330108</t>
-  </si>
-  <si>
-    <t>浙江省杭州市滨江区</t>
-  </si>
-  <si>
-    <t>120.211981</t>
-  </si>
-  <si>
-    <t>30.208332</t>
-  </si>
-  <si>
-    <t>330105</t>
-  </si>
-  <si>
-    <t>浙江省杭州市拱墅区</t>
-  </si>
-  <si>
-    <t>120.141503</t>
-  </si>
-  <si>
-    <t>30.319126</t>
-  </si>
-  <si>
-    <t>330114</t>
-  </si>
-  <si>
-    <t>浙江省杭州市钱塘区</t>
-  </si>
-  <si>
-    <t>120.493941</t>
-  </si>
-  <si>
-    <t>30.32304</t>
-  </si>
-  <si>
-    <t>330109</t>
-  </si>
-  <si>
-    <t>浙江省杭州市萧山区</t>
-  </si>
-  <si>
-    <t>120.264263</t>
-  </si>
-  <si>
-    <t>30.184119</t>
-  </si>
-  <si>
-    <t>330106</t>
-  </si>
-  <si>
-    <t>浙江省杭州市西湖区</t>
-  </si>
-  <si>
-    <t>120.130396</t>
-  </si>
-  <si>
-    <t>30.259242</t>
-  </si>
-  <si>
-    <t>330112</t>
-  </si>
-  <si>
-    <t>浙江省杭州市临安区</t>
-  </si>
-  <si>
-    <t>119.724457</t>
-  </si>
-  <si>
-    <t>30.234375</t>
-  </si>
-  <si>
-    <t>330113</t>
-  </si>
-  <si>
-    <t>浙江省杭州市临平区</t>
-  </si>
-  <si>
-    <t>120.299222</t>
-  </si>
-  <si>
-    <t>30.419154</t>
-  </si>
-  <si>
-    <t>330110</t>
-  </si>
-  <si>
-    <t>浙江省杭州市余杭区</t>
-  </si>
-  <si>
-    <t>119.978742</t>
-  </si>
-  <si>
-    <t>30.273705</t>
   </si>
   <si>
     <t>410000</t>
@@ -43075,10 +43078,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -43111,22 +43114,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -43134,25 +43121,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -43165,14 +43135,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -43181,9 +43143,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -43204,22 +43189,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -43233,8 +43205,39 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -43249,7 +43252,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -43261,7 +43348,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -43273,163 +43426,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -43456,42 +43459,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -43526,17 +43509,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -43546,142 +43549,142 @@
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -44038,13 +44041,13 @@
   <sheetPr/>
   <dimension ref="A1:D3713"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1221" workbookViewId="0">
-      <selection activeCell="B1225" sqref="B1225"/>
+    <sheetView tabSelected="1" topLeftCell="A1182" workbookViewId="0">
+      <selection activeCell="A1252" sqref="A1252:B1253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="66.0769230769231" customWidth="1"/>
+    <col min="2" max="2" width="36.5384615384615" customWidth="1"/>
     <col min="3" max="3" width="18.4230769230769" customWidth="1"/>
     <col min="4" max="4" width="22.2692307692308" customWidth="1"/>
   </cols>
@@ -96032,6 +96035,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D3713">
+    <sortState ref="A2:D3713">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/Crawler/GdAPI/xzqh.xlsx
+++ b/Crawler/GdAPI/xzqh.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13280"/>
+    <workbookView windowWidth="30240" windowHeight="13320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -43079,9 +43079,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -43100,7 +43100,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -43113,16 +43113,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -43143,64 +43142,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -43214,7 +43160,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -43230,6 +43176,60 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -43237,7 +43237,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -43252,7 +43252,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -43264,7 +43264,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -43276,13 +43372,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -43294,145 +43426,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -43455,11 +43455,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -43479,6 +43485,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -43490,32 +43505,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -43537,6 +43526,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -43546,124 +43546,124 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -43672,19 +43672,19 @@
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -44041,8 +44041,8 @@
   <sheetPr/>
   <dimension ref="A1:D3713"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1182" workbookViewId="0">
-      <selection activeCell="A1252" sqref="A1252:B1253"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -96035,11 +96035,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D3713">
-    <sortState ref="A2:D3713">
-      <sortCondition ref="A1"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
